--- a/docs/odh/shr-core-HumanName-model.xlsx
+++ b/docs/odh/shr-core-HumanName-model.xlsx
@@ -137,10 +137,26 @@
     <t>A name used by a human being, written as it would be typically expressed. May include a breakdown of the various elements of the name (family name, given name, etc.).</t>
   </si>
   <si>
-    <t>shr-core-HumanName-model.nameAsText</t>
+    <t>shr-core-HumanName-model.purpose</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Description of the intent or use of the item.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+  </si>
+  <si>
+    <t>shr-core-HumanName-model.name</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
@@ -150,26 +166,46 @@
     <t>The name as plain unstructured or semi-structured text.</t>
   </si>
   <si>
-    <t>shr-core-HumanName-model.purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t>shr-core-HumanName-model.familyName</t>
+  </si>
+  <si>
+    <t>The portion of a person's name that reflects the genealogy of the person. In western cultures, this is the 'last' name. In eastern cultures, the family name appears before the person's given name(s). In some cultures (e.g. Eritrea) the family name of a son is the first name of his father. (Source: HL7 V3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://loinc.org#45394-4
 </t>
   </si>
   <si>
-    <t>What it should be used for.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+    <t>shr-core-HumanName-model.givenName</t>
+  </si>
+  <si>
+    <t>The person's given name - e.g., John</t>
+  </si>
+  <si>
+    <t>http://loinc.org#45392-8
+http://snomed.info/sct#408677003</t>
+  </si>
+  <si>
+    <t>shr-core-HumanName-model.prefix</t>
+  </si>
+  <si>
+    <t>A string that should precede the item; for example, an honorific before a person's name, or a question number before a question.</t>
+  </si>
+  <si>
+    <t>shr-core-HumanName-model.suffix</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>http://loinc.org#45395-1
+http://snomed.info/sct#715196001</t>
   </si>
   <si>
     <t>shr-core-HumanName-model.effectiveTimePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -178,42 +214,6 @@
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2985763
 </t>
-  </si>
-  <si>
-    <t>shr-core-HumanName-model.prefix</t>
-  </si>
-  <si>
-    <t>A string that should precede the item; for example, an honorific before a person's name, or a question number before a question.</t>
-  </si>
-  <si>
-    <t>shr-core-HumanName-model.givenName</t>
-  </si>
-  <si>
-    <t>The person's given name - e.g., John</t>
-  </si>
-  <si>
-    <t>http://loinc.org#45392-8
-http://snomed.info/sct#408677003</t>
-  </si>
-  <si>
-    <t>shr-core-HumanName-model.familyName</t>
-  </si>
-  <si>
-    <t>The portion of a person's name that reflects the genealogy of the person. In western cultures, this is the 'last' name. In eastern cultures, the family name appears before the person's given name(s). In some cultures (e.g. Eritrea) the family name of a son is the first name of his father. (Source: HL7 V3).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://loinc.org#45394-4
-</t>
-  </si>
-  <si>
-    <t>shr-core-HumanName-model.suffix</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>http://loinc.org#45395-1
-http://snomed.info/sct#715196001</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -668,13 +668,11 @@
         <v>36</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="X3" s="2"/>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
         <v>36</v>
@@ -709,7 +707,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -732,13 +730,13 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -765,11 +763,13 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X4" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y4" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>36</v>
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
@@ -827,13 +827,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -869,7 +869,7 @@
         <v>36</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -924,13 +924,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -966,7 +966,7 @@
         <v>36</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>36</v>
@@ -981,7 +981,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1021,7 +1021,7 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>56</v>
@@ -1063,7 +1063,7 @@
         <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>36</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1106,7 +1106,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1160,7 +1160,7 @@
         <v>36</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>36</v>
@@ -1175,13 +1175,13 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>36</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1203,7 +1203,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1215,7 +1215,7 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>62</v>
@@ -1272,13 +1272,13 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>36</v>
